--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\Ads-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="JS-SPA-Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -399,10 +399,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,11 +753,11 @@
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1119,7 +1119,9 @@
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D39" s="7" t="s">
         <v>28</v>
       </c>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1161,9 @@
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D43" s="7" t="s">
         <v>28</v>
       </c>
@@ -1171,7 +1173,9 @@
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D44" s="7" t="s">
         <v>28</v>
       </c>
@@ -1201,7 +1205,9 @@
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D47" s="7" t="s">
         <v>28</v>
       </c>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1185,9 @@
       <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D45" s="7" t="s">
         <v>28</v>
       </c>
@@ -1195,7 +1197,9 @@
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D46" s="7" t="s">
         <v>28</v>
       </c>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -689,7 +689,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1221,9 @@
       <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D48" s="7" t="s">
         <v>28</v>
       </c>
@@ -1231,7 +1233,9 @@
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D49" s="7" t="s">
         <v>28</v>
       </c>
@@ -1241,7 +1245,9 @@
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D50" s="7" t="s">
         <v>28</v>
       </c>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1131,9 @@
       <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D40" s="7" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1143,9 @@
       <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D41" s="7" t="s">
         <v>28</v>
       </c>
@@ -1151,7 +1155,9 @@
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\Ads-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988"/>
   </bookViews>
   <sheets>
     <sheet name="JS-SPA-Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -678,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,18 +683,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
@@ -713,7 +708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>52</v>
       </c>
@@ -721,7 +716,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
@@ -731,7 +726,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
@@ -741,7 +736,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
@@ -749,7 +744,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
@@ -759,27 +754,31 @@
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>14</v>
+      </c>
       <c r="D8" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>61</v>
+      </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
@@ -787,7 +786,7 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -799,7 +798,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -811,7 +810,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
@@ -823,7 +822,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
@@ -835,7 +834,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -847,7 +846,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
@@ -859,7 +858,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -871,7 +870,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -883,7 +882,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
@@ -895,7 +894,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -907,7 +906,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
@@ -919,7 +918,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
@@ -931,7 +930,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
@@ -943,7 +942,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -955,7 +954,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
@@ -967,7 +966,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
@@ -979,7 +978,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
@@ -991,7 +990,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
@@ -1003,7 +1002,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1015,7 +1014,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
@@ -1027,7 +1026,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1038,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1050,7 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1059,7 +1058,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
@@ -1071,7 +1070,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
@@ -1083,7 +1082,7 @@
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
@@ -1093,7 +1092,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
@@ -1103,7 +1102,7 @@
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
@@ -1115,7 +1114,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
@@ -1127,7 +1126,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
@@ -1139,7 +1138,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
@@ -1151,7 +1150,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
@@ -1163,7 +1162,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
@@ -1175,7 +1174,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
@@ -1187,7 +1186,7 @@
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
@@ -1199,7 +1198,7 @@
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
@@ -1211,7 +1210,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1222,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
@@ -1235,7 +1234,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -1247,7 +1246,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
@@ -1259,13 +1258,13 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -673,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,7 +684,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
